--- a/Excel/1.xlsx
+++ b/Excel/1.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Yuan Zhang\Documents\School\Spring 19\Mobile Computing\Project\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryprouty/Desktop/MUC-Project/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E884714B-2032-458F-BE51-B67677EE172C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="2925" windowWidth="18735" windowHeight="11910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12840" yWindow="600" windowWidth="15780" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="18">
   <si>
     <t>Seconds</t>
   </si>
@@ -42,52 +44,49 @@
     <t>Arousal</t>
   </si>
   <si>
-    <t>Class start 13:33</t>
+    <t>Lecture</t>
   </si>
   <si>
-    <t>notes</t>
+    <t>Q &amp; A</t>
   </si>
   <si>
-    <t>question from prof</t>
+    <t>Other</t>
   </si>
   <si>
-    <t>look at phone</t>
+    <t>Laughing</t>
   </si>
   <si>
-    <t>phone of person went off behind</t>
+    <t>Joke</t>
   </si>
   <si>
-    <t>prof question funny</t>
+    <t>Break</t>
   </si>
   <si>
-    <t xml:space="preserve">talking </t>
+    <t>Listening</t>
   </si>
   <si>
-    <t>check phone</t>
+    <t>Writing notes</t>
   </si>
   <si>
-    <t>professor question</t>
+    <t xml:space="preserve">Talking </t>
   </si>
   <si>
-    <t>raised hand</t>
+    <t>Raised hand</t>
   </si>
   <si>
-    <t>prof joke</t>
+    <t>Chatting</t>
   </si>
   <si>
-    <t>break</t>
+    <t>Looking around</t>
   </si>
   <si>
-    <t>class starts again</t>
-  </si>
-  <si>
-    <t>check watch</t>
+    <t>Checking phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -433,23 +432,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E417"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="I418" sqref="I418"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="5" width="10.625" customWidth="1"/>
-    <col min="9" max="1025" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" customWidth="1"/>
+    <col min="9" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,13 +465,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
       <c r="D2">
         <v>3</v>
       </c>
@@ -480,10 +482,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>10</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
       <c r="D3">
         <v>3</v>
       </c>
@@ -491,10 +499,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>20</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
       <c r="D4">
         <v>3</v>
       </c>
@@ -502,10 +516,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>30</v>
       </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
       <c r="D5">
         <v>3</v>
       </c>
@@ -513,10 +533,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>40</v>
       </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
       <c r="D6">
         <v>3</v>
       </c>
@@ -524,10 +550,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>50</v>
       </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
       <c r="D7">
         <v>3</v>
       </c>
@@ -535,10 +567,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>60</v>
       </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
       <c r="D8">
         <v>3</v>
       </c>
@@ -546,10 +584,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>70</v>
       </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
       <c r="D9">
         <v>3</v>
       </c>
@@ -557,10 +601,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>80</v>
       </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
       <c r="D10">
         <v>3</v>
       </c>
@@ -568,10 +618,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>90</v>
       </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
       <c r="D11">
         <v>3</v>
       </c>
@@ -579,10 +635,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>100</v>
       </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
       <c r="D12">
         <v>3</v>
       </c>
@@ -590,10 +652,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>110</v>
       </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
       <c r="D13">
         <v>3</v>
       </c>
@@ -601,10 +669,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>120</v>
       </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
       <c r="D14">
         <v>3</v>
       </c>
@@ -612,10 +686,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>130</v>
       </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
       <c r="D15">
         <v>3</v>
       </c>
@@ -623,10 +703,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>140</v>
       </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
       <c r="D16">
         <v>2</v>
       </c>
@@ -634,10 +720,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>150</v>
       </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
       <c r="D17">
         <v>2</v>
       </c>
@@ -645,10 +737,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>160</v>
       </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
       <c r="D18">
         <v>2</v>
       </c>
@@ -656,10 +754,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>170</v>
       </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
       <c r="D19">
         <v>3</v>
       </c>
@@ -667,12 +771,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>180</v>
       </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -681,10 +788,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>190</v>
       </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
       <c r="D21">
         <v>3</v>
       </c>
@@ -692,10 +805,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>200</v>
       </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
       <c r="D22">
         <v>2</v>
       </c>
@@ -703,10 +822,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>210</v>
       </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
       <c r="D23">
         <v>3</v>
       </c>
@@ -714,10 +839,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>220</v>
       </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
       <c r="D24">
         <v>3</v>
       </c>
@@ -725,10 +856,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>230</v>
       </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
       <c r="D25">
         <v>3</v>
       </c>
@@ -736,10 +873,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>240</v>
       </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
       <c r="D26">
         <v>3</v>
       </c>
@@ -747,10 +890,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>250</v>
       </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
       <c r="D27">
         <v>2</v>
       </c>
@@ -758,10 +907,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>260</v>
       </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
       <c r="D28">
         <v>2</v>
       </c>
@@ -769,10 +924,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>270</v>
       </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
       <c r="D29">
         <v>2</v>
       </c>
@@ -780,10 +941,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>280</v>
       </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
       <c r="D30">
         <v>3</v>
       </c>
@@ -791,12 +958,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>290</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -805,10 +975,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>300</v>
       </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
       <c r="D32">
         <v>3</v>
       </c>
@@ -816,10 +992,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>310</v>
       </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
       <c r="D33">
         <v>3</v>
       </c>
@@ -827,10 +1009,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>320</v>
       </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
       <c r="D34">
         <v>3</v>
       </c>
@@ -838,10 +1026,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>330</v>
       </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
       <c r="D35">
         <v>3</v>
       </c>
@@ -849,10 +1043,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>340</v>
       </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
       <c r="D36">
         <v>3</v>
       </c>
@@ -860,10 +1060,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>350</v>
       </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
       <c r="D37">
         <v>3</v>
       </c>
@@ -871,12 +1077,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>360</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -885,10 +1094,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>370</v>
       </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
       <c r="D39">
         <v>3</v>
       </c>
@@ -896,10 +1111,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>380</v>
       </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
       <c r="D40">
         <v>3</v>
       </c>
@@ -907,10 +1128,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>390</v>
       </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
       <c r="D41">
         <v>3</v>
       </c>
@@ -918,10 +1145,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>400</v>
       </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
       <c r="D42">
         <v>2</v>
       </c>
@@ -929,10 +1162,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>410</v>
       </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
       <c r="D43">
         <v>3</v>
       </c>
@@ -940,10 +1179,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>420</v>
       </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
       <c r="D44">
         <v>3</v>
       </c>
@@ -951,10 +1196,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>430</v>
       </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
       <c r="D45">
         <v>3</v>
       </c>
@@ -962,10 +1213,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>440</v>
       </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
       <c r="D46">
         <v>3</v>
       </c>
@@ -973,10 +1230,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>450</v>
       </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
       <c r="D47">
         <v>3</v>
       </c>
@@ -984,10 +1247,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>460</v>
       </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
       <c r="D48">
         <v>3</v>
       </c>
@@ -995,10 +1264,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>470</v>
       </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
       <c r="D49">
         <v>3</v>
       </c>
@@ -1006,10 +1281,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>480</v>
       </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
       <c r="D50">
         <v>3</v>
       </c>
@@ -1017,10 +1298,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>490</v>
       </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
       <c r="D51">
         <v>3</v>
       </c>
@@ -1028,10 +1315,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>500</v>
       </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
       <c r="D52">
         <v>3</v>
       </c>
@@ -1039,10 +1332,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>510</v>
       </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
       <c r="D53">
         <v>3</v>
       </c>
@@ -1050,10 +1349,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>520</v>
       </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
       <c r="D54">
         <v>3</v>
       </c>
@@ -1061,10 +1366,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>530</v>
       </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
       <c r="D55">
         <v>3</v>
       </c>
@@ -1072,10 +1383,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>540</v>
       </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
       <c r="D56">
         <v>3</v>
       </c>
@@ -1083,10 +1400,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>550</v>
       </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
       <c r="D57">
         <v>3</v>
       </c>
@@ -1094,10 +1417,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>560</v>
       </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
       <c r="D58">
         <v>3</v>
       </c>
@@ -1105,10 +1434,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>570</v>
       </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
       <c r="D59">
         <v>3</v>
       </c>
@@ -1116,10 +1451,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>580</v>
       </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
       <c r="D60">
         <v>3</v>
       </c>
@@ -1127,10 +1468,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>590</v>
       </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
       <c r="D61">
         <v>3</v>
       </c>
@@ -1138,10 +1485,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>600</v>
       </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
       <c r="D62">
         <v>3</v>
       </c>
@@ -1149,10 +1502,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>610</v>
       </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
       <c r="D63">
         <v>3</v>
       </c>
@@ -1160,12 +1519,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>620</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -1174,10 +1536,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>630</v>
       </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
       <c r="D65">
         <v>4</v>
       </c>
@@ -1185,10 +1553,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>640</v>
       </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
       <c r="D66">
         <v>3</v>
       </c>
@@ -1196,10 +1570,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>650</v>
       </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
       <c r="D67">
         <v>3</v>
       </c>
@@ -1207,10 +1587,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>660</v>
       </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
       <c r="D68">
         <v>3</v>
       </c>
@@ -1218,10 +1604,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>670</v>
       </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
       <c r="D69">
         <v>3</v>
       </c>
@@ -1229,10 +1621,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>680</v>
       </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
       <c r="D70">
         <v>3</v>
       </c>
@@ -1240,10 +1638,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>690</v>
       </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
       <c r="D71">
         <v>3</v>
       </c>
@@ -1251,10 +1655,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>700</v>
       </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
       <c r="D72">
         <v>3</v>
       </c>
@@ -1262,10 +1672,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>710</v>
       </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
       <c r="D73">
         <v>3</v>
       </c>
@@ -1273,10 +1689,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>720</v>
       </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
       <c r="D74">
         <v>3</v>
       </c>
@@ -1284,10 +1706,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>730</v>
       </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
       <c r="D75">
         <v>3</v>
       </c>
@@ -1295,10 +1723,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>740</v>
       </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
       <c r="D76">
         <v>3</v>
       </c>
@@ -1306,10 +1740,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>750</v>
       </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
       <c r="D77">
         <v>3</v>
       </c>
@@ -1317,10 +1757,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>760</v>
       </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
       <c r="D78">
         <v>3</v>
       </c>
@@ -1328,10 +1774,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>770</v>
       </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
       <c r="D79">
         <v>3</v>
       </c>
@@ -1339,10 +1791,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>780</v>
       </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
       <c r="D80">
         <v>3</v>
       </c>
@@ -1350,10 +1808,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>790</v>
       </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
       <c r="D81">
         <v>3</v>
       </c>
@@ -1361,10 +1825,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>800</v>
       </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
       <c r="D82">
         <v>3</v>
       </c>
@@ -1372,10 +1842,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>810</v>
       </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
       <c r="D83">
         <v>3</v>
       </c>
@@ -1383,10 +1859,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>820</v>
       </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
       <c r="D84">
         <v>3</v>
       </c>
@@ -1394,10 +1876,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>830</v>
       </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
       <c r="D85">
         <v>3</v>
       </c>
@@ -1405,10 +1893,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>840</v>
       </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
       <c r="D86">
         <v>3</v>
       </c>
@@ -1416,10 +1910,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>850</v>
       </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
       <c r="D87">
         <v>3</v>
       </c>
@@ -1427,10 +1927,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>860</v>
       </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
       <c r="D88">
         <v>3</v>
       </c>
@@ -1438,10 +1944,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>870</v>
       </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
       <c r="D89">
         <v>3</v>
       </c>
@@ -1449,10 +1961,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>880</v>
       </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
       <c r="D90">
         <v>3</v>
       </c>
@@ -1460,10 +1978,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>890</v>
       </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
       <c r="D91">
         <v>3</v>
       </c>
@@ -1471,10 +1995,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>900</v>
       </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
       <c r="D92">
         <v>3</v>
       </c>
@@ -1482,10 +2012,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>910</v>
       </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
       <c r="D93">
         <v>3</v>
       </c>
@@ -1493,10 +2029,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>920</v>
       </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
       <c r="D94">
         <v>3</v>
       </c>
@@ -1504,10 +2046,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>930</v>
       </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
       <c r="D95">
         <v>3</v>
       </c>
@@ -1515,10 +2063,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>940</v>
       </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
       <c r="D96">
         <v>3</v>
       </c>
@@ -1526,10 +2080,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>950</v>
       </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
       <c r="D97">
         <v>3</v>
       </c>
@@ -1537,10 +2097,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>960</v>
       </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
       <c r="D98">
         <v>3</v>
       </c>
@@ -1548,10 +2114,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>970</v>
       </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
       <c r="D99">
         <v>3</v>
       </c>
@@ -1559,10 +2131,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>980</v>
       </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
       <c r="D100">
         <v>3</v>
       </c>
@@ -1570,10 +2148,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>990</v>
       </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
       <c r="D101">
         <v>3</v>
       </c>
@@ -1581,10 +2165,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>1000</v>
       </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
       <c r="D102">
         <v>3</v>
       </c>
@@ -1592,10 +2182,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>1010</v>
       </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
       <c r="D103">
         <v>3</v>
       </c>
@@ -1603,10 +2199,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>1020</v>
       </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
       <c r="D104">
         <v>3</v>
       </c>
@@ -1614,10 +2216,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>1030</v>
       </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
       <c r="D105">
         <v>3</v>
       </c>
@@ -1625,10 +2233,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>1040</v>
       </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
       <c r="D106">
         <v>3</v>
       </c>
@@ -1636,10 +2250,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>1050</v>
       </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
       <c r="D107">
         <v>3</v>
       </c>
@@ -1647,12 +2267,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>1060</v>
       </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -1661,10 +2284,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>1070</v>
       </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
       <c r="D109">
         <v>3</v>
       </c>
@@ -1672,10 +2301,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>1080</v>
       </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
       <c r="D110">
         <v>3</v>
       </c>
@@ -1683,10 +2318,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>1090</v>
       </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
       <c r="D111">
         <v>3</v>
       </c>
@@ -1694,10 +2335,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>1100</v>
       </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
       <c r="D112">
         <v>3</v>
       </c>
@@ -1705,10 +2352,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>1110</v>
       </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
       <c r="D113">
         <v>3</v>
       </c>
@@ -1716,10 +2369,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>1120</v>
       </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
       <c r="D114">
         <v>3</v>
       </c>
@@ -1727,10 +2386,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>1130</v>
       </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
       <c r="D115">
         <v>3</v>
       </c>
@@ -1738,10 +2403,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>1140</v>
       </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
       <c r="D116">
         <v>3</v>
       </c>
@@ -1749,10 +2420,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>1150</v>
       </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
       <c r="D117">
         <v>3</v>
       </c>
@@ -1760,10 +2437,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>1160</v>
       </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
       <c r="D118">
         <v>3</v>
       </c>
@@ -1771,10 +2454,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>1170</v>
       </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
       <c r="D119">
         <v>3</v>
       </c>
@@ -1782,10 +2471,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>1180</v>
       </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
       <c r="D120">
         <v>3</v>
       </c>
@@ -1793,10 +2488,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>1190</v>
       </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
       <c r="D121">
         <v>3</v>
       </c>
@@ -1804,10 +2505,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1200</v>
       </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
       <c r="D122">
         <v>3</v>
       </c>
@@ -1815,10 +2522,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>1210</v>
       </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
       <c r="D123">
         <v>3</v>
       </c>
@@ -1826,10 +2539,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>1220</v>
       </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
       <c r="D124">
         <v>3</v>
       </c>
@@ -1837,10 +2556,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>1230</v>
       </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
       <c r="D125">
         <v>3</v>
       </c>
@@ -1848,10 +2573,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>1240</v>
       </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
       <c r="D126">
         <v>3</v>
       </c>
@@ -1859,10 +2590,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>1250</v>
       </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
       <c r="D127">
         <v>3</v>
       </c>
@@ -1870,10 +2607,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>1260</v>
       </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
       <c r="D128">
         <v>3</v>
       </c>
@@ -1881,10 +2624,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>1270</v>
       </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
       <c r="D129">
         <v>3</v>
       </c>
@@ -1892,10 +2641,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1280</v>
       </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
       <c r="D130">
         <v>3</v>
       </c>
@@ -1903,10 +2658,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1290</v>
       </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
       <c r="D131">
         <v>3</v>
       </c>
@@ -1914,10 +2675,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>1300</v>
       </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
       <c r="D132">
         <v>3</v>
       </c>
@@ -1925,10 +2692,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>1310</v>
       </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
       <c r="D133">
         <v>3</v>
       </c>
@@ -1936,10 +2709,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>1320</v>
       </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
       <c r="D134">
         <v>3</v>
       </c>
@@ -1947,10 +2726,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1330</v>
       </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
       <c r="D135">
         <v>3</v>
       </c>
@@ -1958,10 +2743,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>1340</v>
       </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
       <c r="D136">
         <v>3</v>
       </c>
@@ -1969,10 +2760,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1350</v>
       </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
       <c r="D137">
         <v>3</v>
       </c>
@@ -1980,10 +2777,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>1360</v>
       </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
       <c r="D138">
         <v>3</v>
       </c>
@@ -1991,10 +2794,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>1370</v>
       </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
       <c r="D139">
         <v>3</v>
       </c>
@@ -2002,10 +2811,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>1380</v>
       </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
       <c r="D140">
         <v>3</v>
       </c>
@@ -2013,10 +2828,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>1390</v>
       </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
       <c r="D141">
         <v>3</v>
       </c>
@@ -2024,10 +2845,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>1400</v>
       </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
       <c r="D142">
         <v>3</v>
       </c>
@@ -2035,10 +2862,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1410</v>
       </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
       <c r="D143">
         <v>3</v>
       </c>
@@ -2046,10 +2879,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>1420</v>
       </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
       <c r="D144">
         <v>3</v>
       </c>
@@ -2057,10 +2896,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>1430</v>
       </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
       <c r="D145">
         <v>3</v>
       </c>
@@ -2068,10 +2913,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1440</v>
       </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
       <c r="D146">
         <v>3</v>
       </c>
@@ -2079,10 +2930,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>1450</v>
       </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
       <c r="D147">
         <v>3</v>
       </c>
@@ -2090,10 +2947,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>1460</v>
       </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
       <c r="D148">
         <v>3</v>
       </c>
@@ -2101,10 +2964,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1470</v>
       </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
       <c r="D149">
         <v>3</v>
       </c>
@@ -2112,10 +2981,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>1480</v>
       </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
       <c r="D150">
         <v>3</v>
       </c>
@@ -2123,10 +2998,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>1490</v>
       </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
       <c r="D151">
         <v>3</v>
       </c>
@@ -2134,10 +3015,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>1500</v>
       </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
       <c r="D152">
         <v>3</v>
       </c>
@@ -2145,10 +3032,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>1510</v>
       </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
       <c r="D153">
         <v>3</v>
       </c>
@@ -2156,10 +3049,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>1520</v>
       </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
       <c r="D154">
         <v>3</v>
       </c>
@@ -2167,10 +3066,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>1530</v>
       </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
       <c r="D155">
         <v>3</v>
       </c>
@@ -2178,10 +3083,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>1540</v>
       </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
       <c r="D156">
         <v>3</v>
       </c>
@@ -2189,10 +3100,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>1550</v>
       </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
       <c r="D157">
         <v>3</v>
       </c>
@@ -2200,10 +3117,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>1560</v>
       </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
       <c r="D158">
         <v>3</v>
       </c>
@@ -2211,10 +3134,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>1570</v>
       </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
       <c r="D159">
         <v>3</v>
       </c>
@@ -2222,10 +3151,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>1580</v>
       </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
       <c r="D160">
         <v>3</v>
       </c>
@@ -2233,10 +3168,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>1590</v>
       </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
       <c r="D161">
         <v>3</v>
       </c>
@@ -2244,10 +3185,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>1600</v>
       </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
       <c r="D162">
         <v>3</v>
       </c>
@@ -2255,10 +3202,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>1610</v>
       </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
       <c r="D163">
         <v>3</v>
       </c>
@@ -2266,10 +3219,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>1620</v>
       </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
       <c r="D164">
         <v>3</v>
       </c>
@@ -2277,10 +3236,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>1630</v>
       </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
       <c r="D165">
         <v>2</v>
       </c>
@@ -2288,10 +3253,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>1640</v>
       </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>11</v>
+      </c>
       <c r="D166">
         <v>3</v>
       </c>
@@ -2299,10 +3270,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>1650</v>
       </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
       <c r="D167">
         <v>3</v>
       </c>
@@ -2310,10 +3287,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>1660</v>
       </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
       <c r="D168">
         <v>3</v>
       </c>
@@ -2321,10 +3304,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1670</v>
       </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
       <c r="D169">
         <v>3</v>
       </c>
@@ -2332,10 +3321,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1680</v>
       </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
       <c r="D170">
         <v>3</v>
       </c>
@@ -2343,10 +3338,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1690</v>
       </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
       <c r="D171">
         <v>3</v>
       </c>
@@ -2354,10 +3355,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>1700</v>
       </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
       <c r="D172">
         <v>3</v>
       </c>
@@ -2365,10 +3372,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>1710</v>
       </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
       <c r="D173">
         <v>3</v>
       </c>
@@ -2376,10 +3389,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>1720</v>
       </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
       <c r="D174">
         <v>3</v>
       </c>
@@ -2387,10 +3406,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>1730</v>
       </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
       <c r="D175">
         <v>3</v>
       </c>
@@ -2398,12 +3423,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>1740</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
       </c>
       <c r="D176">
         <v>3</v>
@@ -2412,10 +3440,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>1750</v>
       </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
       <c r="C177" t="s">
         <v>14</v>
       </c>
@@ -2426,10 +3457,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>1760</v>
       </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
       <c r="D178">
         <v>3</v>
       </c>
@@ -2437,10 +3474,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>1770</v>
       </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
       <c r="D179">
         <v>3</v>
       </c>
@@ -2448,10 +3491,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>1780</v>
       </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>11</v>
+      </c>
       <c r="D180">
         <v>3</v>
       </c>
@@ -2459,10 +3508,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>1790</v>
       </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>11</v>
+      </c>
       <c r="D181">
         <v>3</v>
       </c>
@@ -2470,10 +3525,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>1800</v>
       </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
       <c r="D182">
         <v>3</v>
       </c>
@@ -2481,10 +3542,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>1810</v>
       </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>11</v>
+      </c>
       <c r="D183">
         <v>3</v>
       </c>
@@ -2492,10 +3559,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>1820</v>
       </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>11</v>
+      </c>
       <c r="D184">
         <v>3</v>
       </c>
@@ -2503,10 +3576,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>1830</v>
       </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>11</v>
+      </c>
       <c r="D185">
         <v>3</v>
       </c>
@@ -2514,10 +3593,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>1840</v>
       </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>11</v>
+      </c>
       <c r="D186">
         <v>3</v>
       </c>
@@ -2525,10 +3610,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>1850</v>
       </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>11</v>
+      </c>
       <c r="D187">
         <v>3</v>
       </c>
@@ -2536,10 +3627,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>1860</v>
       </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>11</v>
+      </c>
       <c r="D188">
         <v>3</v>
       </c>
@@ -2547,10 +3644,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>1870</v>
       </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>11</v>
+      </c>
       <c r="D189">
         <v>3</v>
       </c>
@@ -2558,10 +3661,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>1880</v>
       </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>11</v>
+      </c>
       <c r="D190">
         <v>3</v>
       </c>
@@ -2569,10 +3678,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>1890</v>
       </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>11</v>
+      </c>
       <c r="D191">
         <v>3</v>
       </c>
@@ -2580,10 +3695,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>1900</v>
       </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>11</v>
+      </c>
       <c r="D192">
         <v>3</v>
       </c>
@@ -2591,10 +3712,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>1910</v>
       </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>11</v>
+      </c>
       <c r="D193">
         <v>3</v>
       </c>
@@ -2602,10 +3729,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>1920</v>
       </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>11</v>
+      </c>
       <c r="D194">
         <v>3</v>
       </c>
@@ -2613,10 +3746,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>1930</v>
       </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>11</v>
+      </c>
       <c r="D195">
         <v>3</v>
       </c>
@@ -2624,10 +3763,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>1940</v>
       </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>11</v>
+      </c>
       <c r="D196">
         <v>3</v>
       </c>
@@ -2635,10 +3780,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>1950</v>
       </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>11</v>
+      </c>
       <c r="D197">
         <v>3</v>
       </c>
@@ -2646,10 +3797,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>1960</v>
       </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>11</v>
+      </c>
       <c r="D198">
         <v>3</v>
       </c>
@@ -2657,10 +3814,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>1970</v>
       </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>11</v>
+      </c>
       <c r="D199">
         <v>3</v>
       </c>
@@ -2668,10 +3831,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>1980</v>
       </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>11</v>
+      </c>
       <c r="D200">
         <v>3</v>
       </c>
@@ -2679,12 +3848,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>1990</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>11</v>
       </c>
       <c r="D201">
         <v>4</v>
@@ -2693,10 +3865,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>2000</v>
       </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>11</v>
+      </c>
       <c r="D202">
         <v>3</v>
       </c>
@@ -2704,10 +3882,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>2010</v>
       </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>11</v>
+      </c>
       <c r="D203">
         <v>3</v>
       </c>
@@ -2715,10 +3899,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>2020</v>
       </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>11</v>
+      </c>
       <c r="D204">
         <v>3</v>
       </c>
@@ -2726,10 +3916,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>2030</v>
       </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
       <c r="D205">
         <v>3</v>
       </c>
@@ -2737,10 +3933,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>2040</v>
       </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>11</v>
+      </c>
       <c r="D206">
         <v>3</v>
       </c>
@@ -2748,10 +3950,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>2050</v>
       </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>11</v>
+      </c>
       <c r="D207">
         <v>3</v>
       </c>
@@ -2759,10 +3967,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>2060</v>
       </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>11</v>
+      </c>
       <c r="D208">
         <v>3</v>
       </c>
@@ -2770,10 +3984,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>2070</v>
       </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>11</v>
+      </c>
       <c r="D209">
         <v>3</v>
       </c>
@@ -2781,10 +4001,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>2080</v>
       </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>11</v>
+      </c>
       <c r="D210">
         <v>3</v>
       </c>
@@ -2792,10 +4018,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>2090</v>
       </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>11</v>
+      </c>
       <c r="D211">
         <v>3</v>
       </c>
@@ -2803,10 +4035,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>2100</v>
       </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
       <c r="D212">
         <v>3</v>
       </c>
@@ -2814,10 +4052,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>2110</v>
       </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>11</v>
+      </c>
       <c r="D213">
         <v>3</v>
       </c>
@@ -2825,10 +4069,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>2120</v>
       </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>11</v>
+      </c>
       <c r="D214">
         <v>3</v>
       </c>
@@ -2836,10 +4086,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>2130</v>
       </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>11</v>
+      </c>
       <c r="D215">
         <v>3</v>
       </c>
@@ -2847,10 +4103,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>2140</v>
       </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>11</v>
+      </c>
       <c r="D216">
         <v>3</v>
       </c>
@@ -2858,10 +4120,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>2150</v>
       </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>11</v>
+      </c>
       <c r="D217">
         <v>3</v>
       </c>
@@ -2869,10 +4137,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>2160</v>
       </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>11</v>
+      </c>
       <c r="D218">
         <v>3</v>
       </c>
@@ -2880,10 +4154,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>2170</v>
       </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>11</v>
+      </c>
       <c r="D219">
         <v>3</v>
       </c>
@@ -2891,12 +4171,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>2180</v>
       </c>
       <c r="B220" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
       </c>
       <c r="D220">
         <v>4</v>
@@ -2905,10 +4188,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>2190</v>
       </c>
+      <c r="B221" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" t="s">
+        <v>10</v>
+      </c>
       <c r="D221">
         <v>4</v>
       </c>
@@ -2916,10 +4205,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>2200</v>
       </c>
+      <c r="B222" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222" t="s">
+        <v>10</v>
+      </c>
       <c r="D222">
         <v>4</v>
       </c>
@@ -2927,10 +4222,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>2210</v>
       </c>
+      <c r="B223" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
       <c r="D223">
         <v>4</v>
       </c>
@@ -2938,10 +4239,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>2220</v>
       </c>
+      <c r="B224" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
       <c r="D224">
         <v>4</v>
       </c>
@@ -2949,10 +4256,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>2230</v>
       </c>
+      <c r="B225" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" t="s">
+        <v>10</v>
+      </c>
       <c r="D225">
         <v>4</v>
       </c>
@@ -2960,10 +4273,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>2240</v>
       </c>
+      <c r="B226" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
       <c r="D226">
         <v>4</v>
       </c>
@@ -2971,10 +4290,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>2250</v>
       </c>
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
       <c r="D227">
         <v>4</v>
       </c>
@@ -2982,10 +4307,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>2260</v>
       </c>
+      <c r="B228" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" t="s">
+        <v>10</v>
+      </c>
       <c r="D228">
         <v>4</v>
       </c>
@@ -2993,10 +4324,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>2270</v>
       </c>
+      <c r="B229" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" t="s">
+        <v>10</v>
+      </c>
       <c r="D229">
         <v>4</v>
       </c>
@@ -3004,10 +4341,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>2280</v>
       </c>
+      <c r="B230" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" t="s">
+        <v>10</v>
+      </c>
       <c r="D230">
         <v>4</v>
       </c>
@@ -3015,10 +4358,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>2290</v>
       </c>
+      <c r="B231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" t="s">
+        <v>10</v>
+      </c>
       <c r="D231">
         <v>4</v>
       </c>
@@ -3026,10 +4375,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>2300</v>
       </c>
+      <c r="B232" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" t="s">
+        <v>10</v>
+      </c>
       <c r="D232">
         <v>4</v>
       </c>
@@ -3037,10 +4392,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>2310</v>
       </c>
+      <c r="B233" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" t="s">
+        <v>10</v>
+      </c>
       <c r="D233">
         <v>4</v>
       </c>
@@ -3048,10 +4409,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>2320</v>
       </c>
+      <c r="B234" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" t="s">
+        <v>10</v>
+      </c>
       <c r="D234">
         <v>4</v>
       </c>
@@ -3059,10 +4426,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>2330</v>
       </c>
+      <c r="B235" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" t="s">
+        <v>10</v>
+      </c>
       <c r="D235">
         <v>4</v>
       </c>
@@ -3070,10 +4443,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>2340</v>
       </c>
+      <c r="B236" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" t="s">
+        <v>10</v>
+      </c>
       <c r="D236">
         <v>4</v>
       </c>
@@ -3081,10 +4460,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>2350</v>
       </c>
+      <c r="B237" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
       <c r="D237">
         <v>5</v>
       </c>
@@ -3092,10 +4477,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>2360</v>
       </c>
+      <c r="B238" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" t="s">
+        <v>10</v>
+      </c>
       <c r="D238">
         <v>5</v>
       </c>
@@ -3103,10 +4494,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>2370</v>
       </c>
+      <c r="B239" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
       <c r="D239">
         <v>4</v>
       </c>
@@ -3114,10 +4511,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>2380</v>
       </c>
+      <c r="B240" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
       <c r="D240">
         <v>4</v>
       </c>
@@ -3125,10 +4528,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>2390</v>
       </c>
+      <c r="B241" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" t="s">
+        <v>10</v>
+      </c>
       <c r="D241">
         <v>5</v>
       </c>
@@ -3136,10 +4545,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>2400</v>
       </c>
+      <c r="B242" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" t="s">
+        <v>10</v>
+      </c>
       <c r="D242">
         <v>5</v>
       </c>
@@ -3147,10 +4562,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>2410</v>
       </c>
+      <c r="B243" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" t="s">
+        <v>10</v>
+      </c>
       <c r="D243">
         <v>5</v>
       </c>
@@ -3158,10 +4579,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>2420</v>
       </c>
+      <c r="B244" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" t="s">
+        <v>10</v>
+      </c>
       <c r="D244">
         <v>5</v>
       </c>
@@ -3169,10 +4596,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>2430</v>
       </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" t="s">
+        <v>10</v>
+      </c>
       <c r="D245">
         <v>4</v>
       </c>
@@ -3180,10 +4613,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>2440</v>
       </c>
+      <c r="B246" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" t="s">
+        <v>10</v>
+      </c>
       <c r="D246">
         <v>5</v>
       </c>
@@ -3191,10 +4630,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>2450</v>
       </c>
+      <c r="B247" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" t="s">
+        <v>10</v>
+      </c>
       <c r="D247">
         <v>5</v>
       </c>
@@ -3202,10 +4647,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>2460</v>
       </c>
+      <c r="B248" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" t="s">
+        <v>10</v>
+      </c>
       <c r="D248">
         <v>5</v>
       </c>
@@ -3213,10 +4664,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>2470</v>
       </c>
+      <c r="B249" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249" t="s">
+        <v>10</v>
+      </c>
       <c r="D249">
         <v>5</v>
       </c>
@@ -3224,10 +4681,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>2480</v>
       </c>
+      <c r="B250" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
       <c r="D250">
         <v>5</v>
       </c>
@@ -3235,10 +4698,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>2490</v>
       </c>
+      <c r="B251" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
       <c r="D251">
         <v>5</v>
       </c>
@@ -3246,10 +4715,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>2500</v>
       </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
       <c r="D252">
         <v>5</v>
       </c>
@@ -3257,10 +4732,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>2510</v>
       </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" t="s">
+        <v>10</v>
+      </c>
       <c r="D253">
         <v>5</v>
       </c>
@@ -3268,10 +4749,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>2520</v>
       </c>
+      <c r="B254" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
       <c r="D254">
         <v>5</v>
       </c>
@@ -3279,10 +4766,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>2530</v>
       </c>
+      <c r="B255" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
       <c r="D255">
         <v>5</v>
       </c>
@@ -3290,10 +4783,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>2540</v>
       </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" t="s">
+        <v>10</v>
+      </c>
       <c r="D256">
         <v>5</v>
       </c>
@@ -3301,10 +4800,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>2550</v>
       </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
       <c r="D257">
         <v>4</v>
       </c>
@@ -3312,10 +4817,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>2560</v>
       </c>
+      <c r="B258" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" t="s">
+        <v>10</v>
+      </c>
       <c r="D258">
         <v>5</v>
       </c>
@@ -3323,10 +4834,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>2570</v>
       </c>
+      <c r="B259" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259" t="s">
+        <v>10</v>
+      </c>
       <c r="D259">
         <v>3</v>
       </c>
@@ -3334,10 +4851,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>2580</v>
       </c>
+      <c r="B260" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" t="s">
+        <v>10</v>
+      </c>
       <c r="D260">
         <v>4</v>
       </c>
@@ -3345,10 +4868,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>2590</v>
       </c>
+      <c r="B261" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" t="s">
+        <v>10</v>
+      </c>
       <c r="D261">
         <v>5</v>
       </c>
@@ -3356,10 +4885,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>2600</v>
       </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" t="s">
+        <v>10</v>
+      </c>
       <c r="D262">
         <v>4</v>
       </c>
@@ -3367,10 +4902,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>2610</v>
       </c>
+      <c r="B263" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" t="s">
+        <v>10</v>
+      </c>
       <c r="D263">
         <v>4</v>
       </c>
@@ -3378,12 +4919,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>2620</v>
       </c>
       <c r="B264" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>11</v>
       </c>
       <c r="D264">
         <v>3</v>
@@ -3392,10 +4936,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>2630</v>
       </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>11</v>
+      </c>
       <c r="D265">
         <v>3</v>
       </c>
@@ -3403,10 +4953,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>2640</v>
       </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>11</v>
+      </c>
       <c r="D266">
         <v>3</v>
       </c>
@@ -3414,10 +4970,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>2650</v>
       </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>11</v>
+      </c>
       <c r="D267">
         <v>3</v>
       </c>
@@ -3425,10 +4987,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>2660</v>
       </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>11</v>
+      </c>
       <c r="D268">
         <v>3</v>
       </c>
@@ -3436,10 +5004,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>2670</v>
       </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>11</v>
+      </c>
       <c r="D269">
         <v>3</v>
       </c>
@@ -3447,10 +5021,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>2680</v>
       </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>11</v>
+      </c>
       <c r="D270">
         <v>3</v>
       </c>
@@ -3458,10 +5038,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>2690</v>
       </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>11</v>
+      </c>
       <c r="D271">
         <v>3</v>
       </c>
@@ -3469,10 +5055,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>2700</v>
       </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>11</v>
+      </c>
       <c r="D272">
         <v>3</v>
       </c>
@@ -3480,10 +5072,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>2710</v>
       </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>11</v>
+      </c>
       <c r="D273">
         <v>3</v>
       </c>
@@ -3491,12 +5089,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>2720</v>
       </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
       <c r="C274" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D274">
         <v>4</v>
@@ -3505,10 +5106,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>2730</v>
       </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>11</v>
+      </c>
       <c r="D275">
         <v>3</v>
       </c>
@@ -3516,10 +5123,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>2740</v>
       </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>11</v>
+      </c>
       <c r="D276">
         <v>3</v>
       </c>
@@ -3527,10 +5140,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>2750</v>
       </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>11</v>
+      </c>
       <c r="D277">
         <v>3</v>
       </c>
@@ -3538,10 +5157,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>2760</v>
       </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>11</v>
+      </c>
       <c r="D278">
         <v>3</v>
       </c>
@@ -3549,10 +5174,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>2770</v>
       </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>11</v>
+      </c>
       <c r="D279">
         <v>3</v>
       </c>
@@ -3560,10 +5191,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>2780</v>
       </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>11</v>
+      </c>
       <c r="D280">
         <v>3</v>
       </c>
@@ -3571,10 +5208,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>2790</v>
       </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>11</v>
+      </c>
       <c r="D281">
         <v>3</v>
       </c>
@@ -3582,10 +5225,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>2800</v>
       </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>11</v>
+      </c>
       <c r="D282">
         <v>3</v>
       </c>
@@ -3593,10 +5242,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>2810</v>
       </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>11</v>
+      </c>
       <c r="D283">
         <v>3</v>
       </c>
@@ -3604,10 +5259,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>2820</v>
       </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>11</v>
+      </c>
       <c r="D284">
         <v>3</v>
       </c>
@@ -3615,10 +5276,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>2830</v>
       </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>11</v>
+      </c>
       <c r="D285">
         <v>3</v>
       </c>
@@ -3626,10 +5293,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>2840</v>
       </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>11</v>
+      </c>
       <c r="D286">
         <v>3</v>
       </c>
@@ -3637,10 +5310,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>2850</v>
       </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>11</v>
+      </c>
       <c r="D287">
         <v>3</v>
       </c>
@@ -3648,10 +5327,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>2860</v>
       </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>11</v>
+      </c>
       <c r="D288">
         <v>3</v>
       </c>
@@ -3659,10 +5344,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>2870</v>
       </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>11</v>
+      </c>
       <c r="D289">
         <v>3</v>
       </c>
@@ -3670,10 +5361,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>2880</v>
       </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>11</v>
+      </c>
       <c r="D290">
         <v>3</v>
       </c>
@@ -3681,10 +5378,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>2890</v>
       </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>11</v>
+      </c>
       <c r="D291">
         <v>3</v>
       </c>
@@ -3692,10 +5395,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>2900</v>
       </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>11</v>
+      </c>
       <c r="D292">
         <v>3</v>
       </c>
@@ -3703,10 +5412,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>2910</v>
       </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>11</v>
+      </c>
       <c r="D293">
         <v>3</v>
       </c>
@@ -3714,10 +5429,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>2920</v>
       </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>11</v>
+      </c>
       <c r="D294">
         <v>3</v>
       </c>
@@ -3725,10 +5446,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>2930</v>
       </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>11</v>
+      </c>
       <c r="D295">
         <v>3</v>
       </c>
@@ -3736,10 +5463,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>2940</v>
       </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>11</v>
+      </c>
       <c r="D296">
         <v>3</v>
       </c>
@@ -3747,10 +5480,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>2950</v>
       </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>11</v>
+      </c>
       <c r="D297">
         <v>3</v>
       </c>
@@ -3758,10 +5497,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>2960</v>
       </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>11</v>
+      </c>
       <c r="D298">
         <v>3</v>
       </c>
@@ -3769,10 +5514,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>2970</v>
       </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>11</v>
+      </c>
       <c r="D299">
         <v>3</v>
       </c>
@@ -3780,10 +5531,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>2980</v>
       </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>11</v>
+      </c>
       <c r="D300">
         <v>3</v>
       </c>
@@ -3791,10 +5548,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>2990</v>
       </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>11</v>
+      </c>
       <c r="D301">
         <v>3</v>
       </c>
@@ -3802,10 +5565,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>3000</v>
       </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>11</v>
+      </c>
       <c r="D302">
         <v>3</v>
       </c>
@@ -3813,10 +5582,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>3010</v>
       </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>11</v>
+      </c>
       <c r="D303">
         <v>3</v>
       </c>
@@ -3824,10 +5599,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>3020</v>
       </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>11</v>
+      </c>
       <c r="D304">
         <v>3</v>
       </c>
@@ -3835,10 +5616,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>3030</v>
       </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>11</v>
+      </c>
       <c r="D305">
         <v>3</v>
       </c>
@@ -3846,10 +5633,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>3040</v>
       </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>11</v>
+      </c>
       <c r="D306">
         <v>3</v>
       </c>
@@ -3857,10 +5650,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>3050</v>
       </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>11</v>
+      </c>
       <c r="D307">
         <v>3</v>
       </c>
@@ -3868,10 +5667,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>3060</v>
       </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>11</v>
+      </c>
       <c r="D308">
         <v>3</v>
       </c>
@@ -3879,10 +5684,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>3070</v>
       </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>11</v>
+      </c>
       <c r="D309">
         <v>3</v>
       </c>
@@ -3890,10 +5701,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>3080</v>
       </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>11</v>
+      </c>
       <c r="D310">
         <v>3</v>
       </c>
@@ -3901,10 +5718,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>3090</v>
       </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>11</v>
+      </c>
       <c r="D311">
         <v>3</v>
       </c>
@@ -3912,10 +5735,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>3100</v>
       </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>11</v>
+      </c>
       <c r="D312">
         <v>3</v>
       </c>
@@ -3923,10 +5752,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>3110</v>
       </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>11</v>
+      </c>
       <c r="D313">
         <v>3</v>
       </c>
@@ -3934,10 +5769,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>3120</v>
       </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>11</v>
+      </c>
       <c r="D314">
         <v>3</v>
       </c>
@@ -3945,10 +5786,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>3130</v>
       </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>11</v>
+      </c>
       <c r="D315">
         <v>3</v>
       </c>
@@ -3956,10 +5803,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>3140</v>
       </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>11</v>
+      </c>
       <c r="D316">
         <v>3</v>
       </c>
@@ -3967,10 +5820,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>3150</v>
       </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>11</v>
+      </c>
       <c r="D317">
         <v>3</v>
       </c>
@@ -3978,10 +5837,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>3160</v>
       </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>11</v>
+      </c>
       <c r="D318">
         <v>3</v>
       </c>
@@ -3989,10 +5854,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>3170</v>
       </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>11</v>
+      </c>
       <c r="D319">
         <v>3</v>
       </c>
@@ -4000,10 +5871,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>3180</v>
       </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>11</v>
+      </c>
       <c r="D320">
         <v>3</v>
       </c>
@@ -4011,10 +5888,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>3190</v>
       </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>11</v>
+      </c>
       <c r="D321">
         <v>3</v>
       </c>
@@ -4022,10 +5905,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>3200</v>
       </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>11</v>
+      </c>
       <c r="D322">
         <v>3</v>
       </c>
@@ -4033,10 +5922,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>3210</v>
       </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>11</v>
+      </c>
       <c r="D323">
         <v>3</v>
       </c>
@@ -4044,10 +5939,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>3220</v>
       </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>11</v>
+      </c>
       <c r="D324">
         <v>3</v>
       </c>
@@ -4055,10 +5956,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>3230</v>
       </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>11</v>
+      </c>
       <c r="D325">
         <v>3</v>
       </c>
@@ -4066,10 +5973,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>3240</v>
       </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>11</v>
+      </c>
       <c r="D326">
         <v>3</v>
       </c>
@@ -4077,10 +5990,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>3250</v>
       </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s">
+        <v>11</v>
+      </c>
       <c r="D327">
         <v>3</v>
       </c>
@@ -4088,10 +6007,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>3260</v>
       </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>11</v>
+      </c>
       <c r="D328">
         <v>3</v>
       </c>
@@ -4099,10 +6024,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>3270</v>
       </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>11</v>
+      </c>
       <c r="D329">
         <v>3</v>
       </c>
@@ -4110,10 +6041,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>3280</v>
       </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" t="s">
+        <v>11</v>
+      </c>
       <c r="D330">
         <v>3</v>
       </c>
@@ -4121,10 +6058,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>3290</v>
       </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>11</v>
+      </c>
       <c r="D331">
         <v>3</v>
       </c>
@@ -4132,10 +6075,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>3300</v>
       </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>11</v>
+      </c>
       <c r="D332">
         <v>3</v>
       </c>
@@ -4143,10 +6092,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>3310</v>
       </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" t="s">
+        <v>11</v>
+      </c>
       <c r="D333">
         <v>3</v>
       </c>
@@ -4154,10 +6109,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>3320</v>
       </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" t="s">
+        <v>11</v>
+      </c>
       <c r="D334">
         <v>3</v>
       </c>
@@ -4165,10 +6126,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>3330</v>
       </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>11</v>
+      </c>
       <c r="D335">
         <v>3</v>
       </c>
@@ -4176,10 +6143,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>3340</v>
       </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>11</v>
+      </c>
       <c r="D336">
         <v>3</v>
       </c>
@@ -4187,10 +6160,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>3350</v>
       </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" t="s">
+        <v>11</v>
+      </c>
       <c r="D337">
         <v>3</v>
       </c>
@@ -4198,10 +6177,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>3360</v>
       </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>11</v>
+      </c>
       <c r="D338">
         <v>3</v>
       </c>
@@ -4209,10 +6194,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>3370</v>
       </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>11</v>
+      </c>
       <c r="D339">
         <v>3</v>
       </c>
@@ -4220,10 +6211,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>3380</v>
       </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>11</v>
+      </c>
       <c r="D340">
         <v>3</v>
       </c>
@@ -4231,10 +6228,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>3390</v>
       </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>11</v>
+      </c>
       <c r="D341">
         <v>3</v>
       </c>
@@ -4242,10 +6245,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>3400</v>
       </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>11</v>
+      </c>
       <c r="D342">
         <v>3</v>
       </c>
@@ -4253,10 +6262,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>3410</v>
       </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>11</v>
+      </c>
       <c r="D343">
         <v>3</v>
       </c>
@@ -4264,10 +6279,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>3420</v>
       </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" t="s">
+        <v>11</v>
+      </c>
       <c r="D344">
         <v>3</v>
       </c>
@@ -4275,10 +6296,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>3430</v>
       </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" t="s">
+        <v>11</v>
+      </c>
       <c r="D345">
         <v>3</v>
       </c>
@@ -4286,10 +6313,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>3440</v>
       </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>11</v>
+      </c>
       <c r="D346">
         <v>3</v>
       </c>
@@ -4297,10 +6330,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>3450</v>
       </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>11</v>
+      </c>
       <c r="D347">
         <v>3</v>
       </c>
@@ -4308,10 +6347,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>3460</v>
       </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>11</v>
+      </c>
       <c r="D348">
         <v>3</v>
       </c>
@@ -4319,10 +6364,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>3470</v>
       </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" t="s">
+        <v>11</v>
+      </c>
       <c r="D349">
         <v>3</v>
       </c>
@@ -4330,10 +6381,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>3480</v>
       </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>11</v>
+      </c>
       <c r="D350">
         <v>3</v>
       </c>
@@ -4341,10 +6398,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>3490</v>
       </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>11</v>
+      </c>
       <c r="D351">
         <v>3</v>
       </c>
@@ -4352,10 +6415,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>3500</v>
       </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" t="s">
+        <v>11</v>
+      </c>
       <c r="D352">
         <v>3</v>
       </c>
@@ -4363,10 +6432,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>3510</v>
       </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>11</v>
+      </c>
       <c r="D353">
         <v>3</v>
       </c>
@@ -4374,10 +6449,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>3520</v>
       </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" t="s">
+        <v>11</v>
+      </c>
       <c r="D354">
         <v>3</v>
       </c>
@@ -4385,10 +6466,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>3530</v>
       </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
+        <v>11</v>
+      </c>
       <c r="D355">
         <v>3</v>
       </c>
@@ -4396,12 +6483,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>3540</v>
       </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
       <c r="C356" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D356">
         <v>3</v>
@@ -4410,10 +6500,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>3550</v>
       </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>11</v>
+      </c>
       <c r="D357">
         <v>3</v>
       </c>
@@ -4421,10 +6517,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>3560</v>
       </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>11</v>
+      </c>
       <c r="D358">
         <v>3</v>
       </c>
@@ -4432,10 +6534,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>3570</v>
       </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
       <c r="D359">
         <v>3</v>
       </c>
@@ -4443,10 +6551,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>3580</v>
       </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>11</v>
+      </c>
       <c r="D360">
         <v>3</v>
       </c>
@@ -4454,10 +6568,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>3590</v>
       </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>11</v>
+      </c>
       <c r="D361">
         <v>3</v>
       </c>
@@ -4465,10 +6585,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>3600</v>
       </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" t="s">
+        <v>11</v>
+      </c>
       <c r="D362">
         <v>3</v>
       </c>
@@ -4476,10 +6602,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>3610</v>
       </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" t="s">
+        <v>11</v>
+      </c>
       <c r="D363">
         <v>3</v>
       </c>
@@ -4487,10 +6619,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>3620</v>
       </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>11</v>
+      </c>
       <c r="D364">
         <v>3</v>
       </c>
@@ -4498,10 +6636,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>3630</v>
       </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>11</v>
+      </c>
       <c r="D365">
         <v>3</v>
       </c>
@@ -4509,10 +6653,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>3640</v>
       </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>11</v>
+      </c>
       <c r="D366">
         <v>3</v>
       </c>
@@ -4520,10 +6670,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>3650</v>
       </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>11</v>
+      </c>
       <c r="D367">
         <v>3</v>
       </c>
@@ -4531,10 +6687,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>3660</v>
       </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>11</v>
+      </c>
       <c r="D368">
         <v>3</v>
       </c>
@@ -4542,10 +6704,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>3670</v>
       </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="s">
+        <v>11</v>
+      </c>
       <c r="D369">
         <v>3</v>
       </c>
@@ -4553,10 +6721,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>3680</v>
       </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>11</v>
+      </c>
       <c r="D370">
         <v>3</v>
       </c>
@@ -4564,10 +6738,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>3690</v>
       </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>11</v>
+      </c>
       <c r="D371">
         <v>3</v>
       </c>
@@ -4575,12 +6755,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>3700</v>
       </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
       <c r="C372" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D372">
         <v>3</v>
@@ -4589,12 +6772,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>3710</v>
       </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
       <c r="C373" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D373">
         <v>3</v>
@@ -4603,12 +6789,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>3720</v>
       </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
       <c r="C374" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D374">
         <v>3</v>
@@ -4617,12 +6806,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>3730</v>
       </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
       <c r="C375" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D375">
         <v>3</v>
@@ -4631,10 +6823,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>3740</v>
       </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" t="s">
+        <v>11</v>
+      </c>
       <c r="D376">
         <v>3</v>
       </c>
@@ -4642,10 +6840,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>3750</v>
       </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" t="s">
+        <v>11</v>
+      </c>
       <c r="D377">
         <v>3</v>
       </c>
@@ -4653,10 +6857,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>3760</v>
       </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" t="s">
+        <v>11</v>
+      </c>
       <c r="D378">
         <v>3</v>
       </c>
@@ -4664,10 +6874,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>3770</v>
       </c>
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379" t="s">
+        <v>11</v>
+      </c>
       <c r="D379">
         <v>3</v>
       </c>
@@ -4675,10 +6891,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>3780</v>
       </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" t="s">
+        <v>11</v>
+      </c>
       <c r="D380">
         <v>3</v>
       </c>
@@ -4686,10 +6908,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>3790</v>
       </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" t="s">
+        <v>11</v>
+      </c>
       <c r="D381">
         <v>3</v>
       </c>
@@ -4697,10 +6925,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>3800</v>
       </c>
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>11</v>
+      </c>
       <c r="D382">
         <v>3</v>
       </c>
@@ -4708,10 +6942,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>3810</v>
       </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" t="s">
+        <v>11</v>
+      </c>
       <c r="D383">
         <v>3</v>
       </c>
@@ -4719,10 +6959,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>3820</v>
       </c>
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384" t="s">
+        <v>11</v>
+      </c>
       <c r="D384">
         <v>3</v>
       </c>
@@ -4730,10 +6976,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>3830</v>
       </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" t="s">
+        <v>11</v>
+      </c>
       <c r="D385">
         <v>3</v>
       </c>
@@ -4741,10 +6993,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>3840</v>
       </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>11</v>
+      </c>
       <c r="D386">
         <v>3</v>
       </c>
@@ -4752,10 +7010,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>3850</v>
       </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>11</v>
+      </c>
       <c r="D387">
         <v>3</v>
       </c>
@@ -4763,10 +7027,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>3860</v>
       </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>11</v>
+      </c>
       <c r="D388">
         <v>3</v>
       </c>
@@ -4774,10 +7044,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>3870</v>
       </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>11</v>
+      </c>
       <c r="D389">
         <v>3</v>
       </c>
@@ -4785,10 +7061,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>3880</v>
       </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>11</v>
+      </c>
       <c r="D390">
         <v>3</v>
       </c>
@@ -4796,10 +7078,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>3890</v>
       </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>11</v>
+      </c>
       <c r="D391">
         <v>3</v>
       </c>
@@ -4807,10 +7095,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>3900</v>
       </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>11</v>
+      </c>
       <c r="D392">
         <v>3</v>
       </c>
@@ -4818,10 +7112,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>3910</v>
       </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" t="s">
+        <v>11</v>
+      </c>
       <c r="D393">
         <v>3</v>
       </c>
@@ -4829,10 +7129,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>3920</v>
       </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>11</v>
+      </c>
       <c r="D394">
         <v>3</v>
       </c>
@@ -4840,10 +7146,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>3930</v>
       </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" t="s">
+        <v>11</v>
+      </c>
       <c r="D395">
         <v>3</v>
       </c>
@@ -4851,10 +7163,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>3940</v>
       </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>11</v>
+      </c>
       <c r="D396">
         <v>3</v>
       </c>
@@ -4862,10 +7180,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>3950</v>
       </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>11</v>
+      </c>
       <c r="D397">
         <v>3</v>
       </c>
@@ -4873,10 +7197,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>3960</v>
       </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>11</v>
+      </c>
       <c r="D398">
         <v>3</v>
       </c>
@@ -4884,10 +7214,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>3970</v>
       </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" t="s">
+        <v>11</v>
+      </c>
       <c r="D399">
         <v>3</v>
       </c>
@@ -4895,10 +7231,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>3980</v>
       </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400" t="s">
+        <v>11</v>
+      </c>
       <c r="D400">
         <v>3</v>
       </c>
@@ -4906,10 +7248,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>3990</v>
       </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" t="s">
+        <v>11</v>
+      </c>
       <c r="D401">
         <v>3</v>
       </c>
@@ -4917,10 +7265,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>4000</v>
       </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>11</v>
+      </c>
       <c r="D402">
         <v>3</v>
       </c>
@@ -4928,10 +7282,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>4010</v>
       </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>11</v>
+      </c>
       <c r="D403">
         <v>3</v>
       </c>
@@ -4939,10 +7299,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>4020</v>
       </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>11</v>
+      </c>
       <c r="D404">
         <v>3</v>
       </c>
@@ -4950,10 +7316,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>4030</v>
       </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>11</v>
+      </c>
       <c r="D405">
         <v>3</v>
       </c>
@@ -4961,10 +7333,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>4040</v>
       </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>11</v>
+      </c>
       <c r="D406">
         <v>3</v>
       </c>
@@ -4972,10 +7350,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>4050</v>
       </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>11</v>
+      </c>
       <c r="D407">
         <v>3</v>
       </c>
@@ -4983,10 +7367,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>4060</v>
       </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>11</v>
+      </c>
       <c r="D408">
         <v>3</v>
       </c>
@@ -4994,10 +7384,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>4070</v>
       </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>11</v>
+      </c>
       <c r="D409">
         <v>3</v>
       </c>
@@ -5005,10 +7401,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>4080</v>
       </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>11</v>
+      </c>
       <c r="D410">
         <v>3</v>
       </c>
@@ -5016,10 +7418,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>4090</v>
       </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" t="s">
+        <v>11</v>
+      </c>
       <c r="D411">
         <v>3</v>
       </c>
@@ -5027,10 +7435,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>4100</v>
       </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412" t="s">
+        <v>11</v>
+      </c>
       <c r="D412">
         <v>3</v>
       </c>
@@ -5038,10 +7452,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>4110</v>
       </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>11</v>
+      </c>
       <c r="D413">
         <v>3</v>
       </c>
@@ -5049,10 +7469,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>4120</v>
       </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>11</v>
+      </c>
       <c r="D414">
         <v>3</v>
       </c>
@@ -5060,10 +7486,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>4130</v>
       </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>11</v>
+      </c>
       <c r="D415">
         <v>3</v>
       </c>
@@ -5071,10 +7503,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>4140</v>
       </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>11</v>
+      </c>
       <c r="D416">
         <v>3</v>
       </c>
@@ -5082,12 +7520,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>4150</v>
       </c>
       <c r="B417" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C417" t="s">
+        <v>11</v>
       </c>
       <c r="D417">
         <v>4</v>

--- a/Excel/1.xlsx
+++ b/Excel/1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26207"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryprouty/Desktop/MUC-Project/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gopal\Documents\School\Classes\Graduate_Classes\UbiquitousComputing\MUC-Project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611BBC2D-50BE-4D28-A9ED-D4E2A5F3CE49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="600" windowWidth="15780" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="12855" yWindow="1110" windowWidth="10770" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,6 @@
   </si>
   <si>
     <t>Specific behavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valence </t>
   </si>
   <si>
     <t>Arousal</t>
@@ -82,11 +80,14 @@
   <si>
     <t>Checking phone</t>
   </si>
+  <si>
+    <t>Valence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -432,23 +433,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="I418" sqref="I418"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" customWidth="1"/>
-    <col min="9" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="5" width="10.625" customWidth="1"/>
+    <col min="9" max="1025" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,21 +460,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -482,15 +483,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -499,15 +500,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -516,15 +517,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -533,15 +534,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -550,15 +551,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -567,15 +568,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -584,15 +585,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -601,15 +602,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -618,15 +619,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -635,15 +636,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -652,15 +653,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -669,15 +670,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -686,15 +687,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -703,15 +704,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -720,15 +721,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -737,15 +738,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -754,15 +755,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -771,15 +772,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -788,15 +789,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -805,15 +806,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -822,15 +823,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -839,15 +840,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>220</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -856,15 +857,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>230</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -873,15 +874,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -890,15 +891,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -907,15 +908,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>260</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -924,15 +925,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>270</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -941,15 +942,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>280</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -958,15 +959,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>290</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -975,15 +976,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>300</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -992,15 +993,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>310</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1009,15 +1010,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>320</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1026,15 +1027,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>330</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1043,15 +1044,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>340</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1060,15 +1061,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1077,15 +1078,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>360</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -1094,15 +1095,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>370</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -1111,15 +1112,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>380</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1128,15 +1129,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>390</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1145,15 +1146,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>400</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1162,15 +1163,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>410</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1179,15 +1180,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>420</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -1196,15 +1197,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>430</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1213,15 +1214,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>440</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1230,15 +1231,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>450</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -1247,15 +1248,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>460</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -1264,15 +1265,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>470</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -1281,15 +1282,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>480</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -1298,15 +1299,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>490</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -1315,15 +1316,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>500</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -1332,15 +1333,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>510</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -1349,15 +1350,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>520</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -1366,15 +1367,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>530</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -1383,15 +1384,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>540</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -1400,15 +1401,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>550</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -1417,15 +1418,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>560</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -1434,15 +1435,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>570</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -1451,15 +1452,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>580</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -1468,15 +1469,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>590</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -1485,15 +1486,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>600</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -1502,15 +1503,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>610</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -1519,15 +1520,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>620</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -1536,15 +1537,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>630</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -1553,15 +1554,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>640</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -1570,15 +1571,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>650</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -1587,15 +1588,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>660</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -1604,15 +1605,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>670</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -1621,15 +1622,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>680</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -1638,15 +1639,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>690</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -1655,15 +1656,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>700</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -1672,15 +1673,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>710</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -1689,15 +1690,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>720</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -1706,15 +1707,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>730</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -1723,15 +1724,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>740</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -1740,15 +1741,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>750</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -1757,15 +1758,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>760</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -1774,15 +1775,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>770</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -1791,15 +1792,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>780</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -1808,15 +1809,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>790</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -1825,15 +1826,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>800</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -1842,15 +1843,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>810</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -1859,15 +1860,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>820</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -1876,15 +1877,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>830</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -1893,15 +1894,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>840</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -1910,15 +1911,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>850</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -1927,15 +1928,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>860</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -1944,15 +1945,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>870</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -1961,15 +1962,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>880</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -1978,15 +1979,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>890</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -1995,15 +1996,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>900</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -2012,15 +2013,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>910</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -2029,15 +2030,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>920</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -2046,15 +2047,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>930</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -2063,15 +2064,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>940</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -2080,15 +2081,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>950</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -2097,15 +2098,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>960</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -2114,15 +2115,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>970</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -2131,15 +2132,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>980</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2148,15 +2149,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>990</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -2165,15 +2166,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1000</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -2182,15 +2183,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1010</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103">
         <v>3</v>
@@ -2199,15 +2200,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1020</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -2216,15 +2217,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1030</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -2233,15 +2234,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1040</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -2250,15 +2251,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1050</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107">
         <v>3</v>
@@ -2267,15 +2268,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1060</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2284,15 +2285,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1070</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -2301,15 +2302,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1080</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -2318,15 +2319,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1090</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -2335,15 +2336,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1100</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -2352,15 +2353,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1110</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -2369,15 +2370,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1120</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -2386,15 +2387,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1130</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -2403,15 +2404,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1140</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -2420,15 +2421,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1150</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117">
         <v>3</v>
@@ -2437,15 +2438,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>1160</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -2454,15 +2455,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>1170</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -2471,15 +2472,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1180</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -2488,15 +2489,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1190</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -2505,15 +2506,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1200</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -2522,15 +2523,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>1210</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -2539,15 +2540,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1220</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -2556,15 +2557,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>1230</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125">
         <v>3</v>
@@ -2573,15 +2574,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>1240</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126">
         <v>3</v>
@@ -2590,15 +2591,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>1250</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127">
         <v>3</v>
@@ -2607,15 +2608,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>1260</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -2624,15 +2625,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>1270</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -2641,15 +2642,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>1280</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130">
         <v>3</v>
@@ -2658,15 +2659,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>1290</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -2675,15 +2676,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>1300</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -2692,15 +2693,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>1310</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -2709,15 +2710,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1320</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -2726,15 +2727,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1330</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135">
         <v>3</v>
@@ -2743,15 +2744,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1340</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D136">
         <v>3</v>
@@ -2760,15 +2761,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1350</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -2777,15 +2778,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1360</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D138">
         <v>3</v>
@@ -2794,15 +2795,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1370</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -2811,15 +2812,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1380</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D140">
         <v>3</v>
@@ -2828,15 +2829,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1390</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -2845,15 +2846,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1400</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -2862,15 +2863,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1410</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -2879,15 +2880,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1420</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144">
         <v>3</v>
@@ -2896,15 +2897,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1430</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -2913,15 +2914,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1440</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146">
         <v>3</v>
@@ -2930,15 +2931,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1450</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147">
         <v>3</v>
@@ -2947,15 +2948,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1460</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D148">
         <v>3</v>
@@ -2964,15 +2965,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1470</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -2981,15 +2982,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1480</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -2998,15 +2999,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1490</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D151">
         <v>3</v>
@@ -3015,15 +3016,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1500</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -3032,15 +3033,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1510</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D153">
         <v>3</v>
@@ -3049,15 +3050,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1520</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -3066,15 +3067,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1530</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -3083,15 +3084,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1540</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -3100,15 +3101,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1550</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -3117,15 +3118,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1560</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -3134,15 +3135,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1570</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D159">
         <v>3</v>
@@ -3151,15 +3152,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1580</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -3168,15 +3169,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>1590</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -3185,15 +3186,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1600</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -3202,15 +3203,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1610</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -3219,15 +3220,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1620</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -3236,15 +3237,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1630</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -3253,15 +3254,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>1640</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -3270,15 +3271,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>1650</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D167">
         <v>3</v>
@@ -3287,15 +3288,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1660</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -3304,15 +3305,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1670</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D169">
         <v>3</v>
@@ -3321,15 +3322,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1680</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -3338,15 +3339,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1690</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D171">
         <v>3</v>
@@ -3355,15 +3356,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>1700</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D172">
         <v>3</v>
@@ -3372,15 +3373,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1710</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D173">
         <v>3</v>
@@ -3389,15 +3390,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1720</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -3406,15 +3407,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>1730</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -3423,15 +3424,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>1740</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D176">
         <v>3</v>
@@ -3440,15 +3441,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>1750</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -3457,15 +3458,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>1760</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D178">
         <v>3</v>
@@ -3474,15 +3475,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>1770</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -3491,15 +3492,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>1780</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -3508,15 +3509,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>1790</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D181">
         <v>3</v>
@@ -3525,15 +3526,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>1800</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D182">
         <v>3</v>
@@ -3542,15 +3543,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>1810</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D183">
         <v>3</v>
@@ -3559,15 +3560,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>1820</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -3576,15 +3577,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>1830</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -3593,15 +3594,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1840</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D186">
         <v>3</v>
@@ -3610,15 +3611,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>1850</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -3627,15 +3628,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1860</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -3644,15 +3645,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1870</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -3661,15 +3662,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>1880</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -3678,15 +3679,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>1890</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D191">
         <v>3</v>
@@ -3695,15 +3696,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>1900</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D192">
         <v>3</v>
@@ -3712,15 +3713,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>1910</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -3729,15 +3730,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>1920</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D194">
         <v>3</v>
@@ -3746,15 +3747,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>1930</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D195">
         <v>3</v>
@@ -3763,15 +3764,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1940</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D196">
         <v>3</v>
@@ -3780,15 +3781,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>1950</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D197">
         <v>3</v>
@@ -3797,15 +3798,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>1960</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -3814,15 +3815,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1970</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D199">
         <v>3</v>
@@ -3831,15 +3832,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1980</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D200">
         <v>3</v>
@@ -3848,15 +3849,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1990</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D201">
         <v>4</v>
@@ -3865,15 +3866,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2000</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D202">
         <v>3</v>
@@ -3882,15 +3883,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2010</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D203">
         <v>3</v>
@@ -3899,15 +3900,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2020</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D204">
         <v>3</v>
@@ -3916,15 +3917,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2030</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D205">
         <v>3</v>
@@ -3933,15 +3934,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2040</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D206">
         <v>3</v>
@@ -3950,15 +3951,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2050</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D207">
         <v>3</v>
@@ -3967,15 +3968,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2060</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D208">
         <v>3</v>
@@ -3984,15 +3985,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2070</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D209">
         <v>3</v>
@@ -4001,15 +4002,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2080</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D210">
         <v>3</v>
@@ -4018,15 +4019,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2090</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D211">
         <v>3</v>
@@ -4035,15 +4036,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2100</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D212">
         <v>3</v>
@@ -4052,15 +4053,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2110</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D213">
         <v>3</v>
@@ -4069,15 +4070,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>2120</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D214">
         <v>3</v>
@@ -4086,15 +4087,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2130</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D215">
         <v>3</v>
@@ -4103,15 +4104,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2140</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D216">
         <v>3</v>
@@ -4120,15 +4121,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2150</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D217">
         <v>3</v>
@@ -4137,15 +4138,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2160</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D218">
         <v>3</v>
@@ -4154,15 +4155,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2170</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D219">
         <v>3</v>
@@ -4171,15 +4172,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2180</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D220">
         <v>4</v>
@@ -4188,15 +4189,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2190</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D221">
         <v>4</v>
@@ -4205,15 +4206,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2200</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D222">
         <v>4</v>
@@ -4222,15 +4223,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2210</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D223">
         <v>4</v>
@@ -4239,15 +4240,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2220</v>
       </c>
       <c r="B224" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D224">
         <v>4</v>
@@ -4256,15 +4257,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2230</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D225">
         <v>4</v>
@@ -4273,15 +4274,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2240</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D226">
         <v>4</v>
@@ -4290,15 +4291,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2250</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D227">
         <v>4</v>
@@ -4307,15 +4308,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2260</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D228">
         <v>4</v>
@@ -4324,15 +4325,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2270</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D229">
         <v>4</v>
@@ -4341,15 +4342,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2280</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D230">
         <v>4</v>
@@ -4358,15 +4359,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2290</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D231">
         <v>4</v>
@@ -4375,15 +4376,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2300</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D232">
         <v>4</v>
@@ -4392,15 +4393,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2310</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D233">
         <v>4</v>
@@ -4409,15 +4410,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2320</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D234">
         <v>4</v>
@@ -4426,15 +4427,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>2330</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D235">
         <v>4</v>
@@ -4443,15 +4444,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>2340</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D236">
         <v>4</v>
@@ -4460,15 +4461,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>2350</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D237">
         <v>5</v>
@@ -4477,15 +4478,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>2360</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D238">
         <v>5</v>
@@ -4494,15 +4495,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>2370</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D239">
         <v>4</v>
@@ -4511,15 +4512,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>2380</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D240">
         <v>4</v>
@@ -4528,15 +4529,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>2390</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D241">
         <v>5</v>
@@ -4545,15 +4546,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>2400</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D242">
         <v>5</v>
@@ -4562,15 +4563,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>2410</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D243">
         <v>5</v>
@@ -4579,15 +4580,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>2420</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D244">
         <v>5</v>
@@ -4596,15 +4597,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>2430</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D245">
         <v>4</v>
@@ -4613,15 +4614,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>2440</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D246">
         <v>5</v>
@@ -4630,15 +4631,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2450</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D247">
         <v>5</v>
@@ -4647,15 +4648,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>2460</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D248">
         <v>5</v>
@@ -4664,15 +4665,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>2470</v>
       </c>
       <c r="B249" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D249">
         <v>5</v>
@@ -4681,15 +4682,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>2480</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D250">
         <v>5</v>
@@ -4698,15 +4699,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>2490</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D251">
         <v>5</v>
@@ -4715,15 +4716,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>2500</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D252">
         <v>5</v>
@@ -4732,15 +4733,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>2510</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D253">
         <v>5</v>
@@ -4749,15 +4750,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>2520</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D254">
         <v>5</v>
@@ -4766,15 +4767,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>2530</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D255">
         <v>5</v>
@@ -4783,15 +4784,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>2540</v>
       </c>
       <c r="B256" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D256">
         <v>5</v>
@@ -4800,15 +4801,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>2550</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D257">
         <v>4</v>
@@ -4817,15 +4818,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>2560</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D258">
         <v>5</v>
@@ -4834,15 +4835,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>2570</v>
       </c>
       <c r="B259" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D259">
         <v>3</v>
@@ -4851,15 +4852,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>2580</v>
       </c>
       <c r="B260" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D260">
         <v>4</v>
@@ -4868,15 +4869,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>2590</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D261">
         <v>5</v>
@@ -4885,15 +4886,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>2600</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D262">
         <v>4</v>
@@ -4902,15 +4903,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>2610</v>
       </c>
       <c r="B263" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D263">
         <v>4</v>
@@ -4919,15 +4920,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>2620</v>
       </c>
       <c r="B264" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D264">
         <v>3</v>
@@ -4936,15 +4937,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>2630</v>
       </c>
       <c r="B265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D265">
         <v>3</v>
@@ -4953,15 +4954,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>2640</v>
       </c>
       <c r="B266" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D266">
         <v>3</v>
@@ -4970,15 +4971,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>2650</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C267" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D267">
         <v>3</v>
@@ -4987,15 +4988,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>2660</v>
       </c>
       <c r="B268" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D268">
         <v>3</v>
@@ -5004,15 +5005,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>2670</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D269">
         <v>3</v>
@@ -5021,15 +5022,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>2680</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C270" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D270">
         <v>3</v>
@@ -5038,15 +5039,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>2690</v>
       </c>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D271">
         <v>3</v>
@@ -5055,15 +5056,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>2700</v>
       </c>
       <c r="B272" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D272">
         <v>3</v>
@@ -5072,15 +5073,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>2710</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D273">
         <v>3</v>
@@ -5089,15 +5090,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2720</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C274" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D274">
         <v>4</v>
@@ -5106,15 +5107,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>2730</v>
       </c>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D275">
         <v>3</v>
@@ -5123,15 +5124,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>2740</v>
       </c>
       <c r="B276" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C276" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D276">
         <v>3</v>
@@ -5140,15 +5141,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2750</v>
       </c>
       <c r="B277" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C277" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D277">
         <v>3</v>
@@ -5157,15 +5158,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2760</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D278">
         <v>3</v>
@@ -5174,15 +5175,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>2770</v>
       </c>
       <c r="B279" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D279">
         <v>3</v>
@@ -5191,15 +5192,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>2780</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D280">
         <v>3</v>
@@ -5208,15 +5209,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>2790</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D281">
         <v>3</v>
@@ -5225,15 +5226,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>2800</v>
       </c>
       <c r="B282" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D282">
         <v>3</v>
@@ -5242,15 +5243,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>2810</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D283">
         <v>3</v>
@@ -5259,15 +5260,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>2820</v>
       </c>
       <c r="B284" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D284">
         <v>3</v>
@@ -5276,15 +5277,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>2830</v>
       </c>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D285">
         <v>3</v>
@@ -5293,15 +5294,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>2840</v>
       </c>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D286">
         <v>3</v>
@@ -5310,15 +5311,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>2850</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D287">
         <v>3</v>
@@ -5327,15 +5328,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>2860</v>
       </c>
       <c r="B288" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C288" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D288">
         <v>3</v>
@@ -5344,15 +5345,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>2870</v>
       </c>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C289" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D289">
         <v>3</v>
@@ -5361,15 +5362,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>2880</v>
       </c>
       <c r="B290" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D290">
         <v>3</v>
@@ -5378,15 +5379,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>2890</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C291" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D291">
         <v>3</v>
@@ -5395,15 +5396,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>2900</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C292" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D292">
         <v>3</v>
@@ -5412,15 +5413,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>2910</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C293" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D293">
         <v>3</v>
@@ -5429,15 +5430,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>2920</v>
       </c>
       <c r="B294" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C294" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D294">
         <v>3</v>
@@ -5446,15 +5447,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>2930</v>
       </c>
       <c r="B295" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C295" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D295">
         <v>3</v>
@@ -5463,15 +5464,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>2940</v>
       </c>
       <c r="B296" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C296" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D296">
         <v>3</v>
@@ -5480,15 +5481,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>2950</v>
       </c>
       <c r="B297" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C297" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D297">
         <v>3</v>
@@ -5497,15 +5498,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>2960</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C298" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D298">
         <v>3</v>
@@ -5514,15 +5515,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>2970</v>
       </c>
       <c r="B299" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D299">
         <v>3</v>
@@ -5531,15 +5532,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>2980</v>
       </c>
       <c r="B300" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D300">
         <v>3</v>
@@ -5548,15 +5549,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>2990</v>
       </c>
       <c r="B301" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C301" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D301">
         <v>3</v>
@@ -5565,15 +5566,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>3000</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C302" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D302">
         <v>3</v>
@@ -5582,15 +5583,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>3010</v>
       </c>
       <c r="B303" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C303" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D303">
         <v>3</v>
@@ -5599,15 +5600,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>3020</v>
       </c>
       <c r="B304" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C304" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -5616,15 +5617,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>3030</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D305">
         <v>3</v>
@@ -5633,15 +5634,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>3040</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C306" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D306">
         <v>3</v>
@@ -5650,15 +5651,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>3050</v>
       </c>
       <c r="B307" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C307" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D307">
         <v>3</v>
@@ -5667,15 +5668,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>3060</v>
       </c>
       <c r="B308" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C308" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D308">
         <v>3</v>
@@ -5684,15 +5685,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>3070</v>
       </c>
       <c r="B309" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C309" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D309">
         <v>3</v>
@@ -5701,15 +5702,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>3080</v>
       </c>
       <c r="B310" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C310" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D310">
         <v>3</v>
@@ -5718,15 +5719,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>3090</v>
       </c>
       <c r="B311" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C311" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D311">
         <v>3</v>
@@ -5735,15 +5736,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>3100</v>
       </c>
       <c r="B312" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C312" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D312">
         <v>3</v>
@@ -5752,15 +5753,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>3110</v>
       </c>
       <c r="B313" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C313" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D313">
         <v>3</v>
@@ -5769,15 +5770,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>3120</v>
       </c>
       <c r="B314" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D314">
         <v>3</v>
@@ -5786,15 +5787,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>3130</v>
       </c>
       <c r="B315" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C315" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D315">
         <v>3</v>
@@ -5803,15 +5804,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>3140</v>
       </c>
       <c r="B316" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C316" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D316">
         <v>3</v>
@@ -5820,15 +5821,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>3150</v>
       </c>
       <c r="B317" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C317" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D317">
         <v>3</v>
@@ -5837,15 +5838,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>3160</v>
       </c>
       <c r="B318" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C318" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D318">
         <v>3</v>
@@ -5854,15 +5855,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>3170</v>
       </c>
       <c r="B319" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C319" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D319">
         <v>3</v>
@@ -5871,15 +5872,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>3180</v>
       </c>
       <c r="B320" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C320" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D320">
         <v>3</v>
@@ -5888,15 +5889,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>3190</v>
       </c>
       <c r="B321" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D321">
         <v>3</v>
@@ -5905,15 +5906,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>3200</v>
       </c>
       <c r="B322" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C322" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D322">
         <v>3</v>
@@ -5922,15 +5923,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>3210</v>
       </c>
       <c r="B323" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C323" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D323">
         <v>3</v>
@@ -5939,15 +5940,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>3220</v>
       </c>
       <c r="B324" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C324" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D324">
         <v>3</v>
@@ -5956,15 +5957,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>3230</v>
       </c>
       <c r="B325" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C325" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D325">
         <v>3</v>
@@ -5973,15 +5974,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>3240</v>
       </c>
       <c r="B326" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C326" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D326">
         <v>3</v>
@@ -5990,15 +5991,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>3250</v>
       </c>
       <c r="B327" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C327" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D327">
         <v>3</v>
@@ -6007,15 +6008,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>3260</v>
       </c>
       <c r="B328" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C328" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D328">
         <v>3</v>
@@ -6024,15 +6025,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>3270</v>
       </c>
       <c r="B329" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C329" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D329">
         <v>3</v>
@@ -6041,15 +6042,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>3280</v>
       </c>
       <c r="B330" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C330" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D330">
         <v>3</v>
@@ -6058,15 +6059,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>3290</v>
       </c>
       <c r="B331" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C331" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D331">
         <v>3</v>
@@ -6075,15 +6076,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>3300</v>
       </c>
       <c r="B332" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C332" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D332">
         <v>3</v>
@@ -6092,15 +6093,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>3310</v>
       </c>
       <c r="B333" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C333" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D333">
         <v>3</v>
@@ -6109,15 +6110,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>3320</v>
       </c>
       <c r="B334" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C334" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D334">
         <v>3</v>
@@ -6126,15 +6127,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>3330</v>
       </c>
       <c r="B335" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C335" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D335">
         <v>3</v>
@@ -6143,15 +6144,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>3340</v>
       </c>
       <c r="B336" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C336" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D336">
         <v>3</v>
@@ -6160,15 +6161,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>3350</v>
       </c>
       <c r="B337" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C337" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D337">
         <v>3</v>
@@ -6177,15 +6178,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>3360</v>
       </c>
       <c r="B338" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C338" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D338">
         <v>3</v>
@@ -6194,15 +6195,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>3370</v>
       </c>
       <c r="B339" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C339" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D339">
         <v>3</v>
@@ -6211,15 +6212,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>3380</v>
       </c>
       <c r="B340" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C340" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D340">
         <v>3</v>
@@ -6228,15 +6229,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>3390</v>
       </c>
       <c r="B341" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C341" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D341">
         <v>3</v>
@@ -6245,15 +6246,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>3400</v>
       </c>
       <c r="B342" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C342" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D342">
         <v>3</v>
@@ -6262,15 +6263,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>3410</v>
       </c>
       <c r="B343" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C343" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D343">
         <v>3</v>
@@ -6279,15 +6280,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>3420</v>
       </c>
       <c r="B344" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C344" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D344">
         <v>3</v>
@@ -6296,15 +6297,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>3430</v>
       </c>
       <c r="B345" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C345" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D345">
         <v>3</v>
@@ -6313,15 +6314,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>3440</v>
       </c>
       <c r="B346" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C346" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D346">
         <v>3</v>
@@ -6330,15 +6331,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>3450</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C347" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D347">
         <v>3</v>
@@ -6347,15 +6348,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>3460</v>
       </c>
       <c r="B348" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C348" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D348">
         <v>3</v>
@@ -6364,15 +6365,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>3470</v>
       </c>
       <c r="B349" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D349">
         <v>3</v>
@@ -6381,15 +6382,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>3480</v>
       </c>
       <c r="B350" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C350" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D350">
         <v>3</v>
@@ -6398,15 +6399,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>3490</v>
       </c>
       <c r="B351" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C351" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D351">
         <v>3</v>
@@ -6415,15 +6416,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>3500</v>
       </c>
       <c r="B352" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C352" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D352">
         <v>3</v>
@@ -6432,15 +6433,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>3510</v>
       </c>
       <c r="B353" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C353" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D353">
         <v>3</v>
@@ -6449,15 +6450,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>3520</v>
       </c>
       <c r="B354" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C354" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D354">
         <v>3</v>
@@ -6466,15 +6467,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>3530</v>
       </c>
       <c r="B355" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C355" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D355">
         <v>3</v>
@@ -6483,15 +6484,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>3540</v>
       </c>
       <c r="B356" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C356" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D356">
         <v>3</v>
@@ -6500,15 +6501,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>3550</v>
       </c>
       <c r="B357" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C357" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D357">
         <v>3</v>
@@ -6517,15 +6518,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>3560</v>
       </c>
       <c r="B358" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C358" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D358">
         <v>3</v>
@@ -6534,15 +6535,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>3570</v>
       </c>
       <c r="B359" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C359" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D359">
         <v>3</v>
@@ -6551,15 +6552,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>3580</v>
       </c>
       <c r="B360" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C360" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D360">
         <v>3</v>
@@ -6568,15 +6569,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>3590</v>
       </c>
       <c r="B361" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C361" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D361">
         <v>3</v>
@@ -6585,15 +6586,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>3600</v>
       </c>
       <c r="B362" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C362" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D362">
         <v>3</v>
@@ -6602,15 +6603,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>3610</v>
       </c>
       <c r="B363" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C363" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D363">
         <v>3</v>
@@ -6619,15 +6620,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>3620</v>
       </c>
       <c r="B364" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C364" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D364">
         <v>3</v>
@@ -6636,15 +6637,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>3630</v>
       </c>
       <c r="B365" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C365" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D365">
         <v>3</v>
@@ -6653,15 +6654,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>3640</v>
       </c>
       <c r="B366" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C366" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D366">
         <v>3</v>
@@ -6670,15 +6671,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>3650</v>
       </c>
       <c r="B367" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C367" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D367">
         <v>3</v>
@@ -6687,15 +6688,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>3660</v>
       </c>
       <c r="B368" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C368" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D368">
         <v>3</v>
@@ -6704,15 +6705,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>3670</v>
       </c>
       <c r="B369" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C369" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D369">
         <v>3</v>
@@ -6721,15 +6722,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>3680</v>
       </c>
       <c r="B370" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C370" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D370">
         <v>3</v>
@@ -6738,15 +6739,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>3690</v>
       </c>
       <c r="B371" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C371" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D371">
         <v>3</v>
@@ -6755,15 +6756,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>3700</v>
       </c>
       <c r="B372" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C372" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D372">
         <v>3</v>
@@ -6772,15 +6773,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>3710</v>
       </c>
       <c r="B373" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C373" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D373">
         <v>3</v>
@@ -6789,15 +6790,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>3720</v>
       </c>
       <c r="B374" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C374" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D374">
         <v>3</v>
@@ -6806,15 +6807,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>3730</v>
       </c>
       <c r="B375" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C375" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D375">
         <v>3</v>
@@ -6823,15 +6824,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>3740</v>
       </c>
       <c r="B376" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C376" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D376">
         <v>3</v>
@@ -6840,15 +6841,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>3750</v>
       </c>
       <c r="B377" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C377" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D377">
         <v>3</v>
@@ -6857,15 +6858,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>3760</v>
       </c>
       <c r="B378" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C378" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D378">
         <v>3</v>
@@ -6874,15 +6875,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>3770</v>
       </c>
       <c r="B379" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C379" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D379">
         <v>3</v>
@@ -6891,15 +6892,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>3780</v>
       </c>
       <c r="B380" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C380" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D380">
         <v>3</v>
@@ -6908,15 +6909,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>3790</v>
       </c>
       <c r="B381" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C381" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D381">
         <v>3</v>
@@ -6925,15 +6926,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>3800</v>
       </c>
       <c r="B382" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C382" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D382">
         <v>3</v>
@@ -6942,15 +6943,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>3810</v>
       </c>
       <c r="B383" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C383" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D383">
         <v>3</v>
@@ -6959,15 +6960,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>3820</v>
       </c>
       <c r="B384" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C384" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D384">
         <v>3</v>
@@ -6976,15 +6977,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>3830</v>
       </c>
       <c r="B385" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C385" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D385">
         <v>3</v>
@@ -6993,15 +6994,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>3840</v>
       </c>
       <c r="B386" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C386" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D386">
         <v>3</v>
@@ -7010,15 +7011,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>3850</v>
       </c>
       <c r="B387" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C387" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D387">
         <v>3</v>
@@ -7027,15 +7028,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>3860</v>
       </c>
       <c r="B388" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C388" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D388">
         <v>3</v>
@@ -7044,15 +7045,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>3870</v>
       </c>
       <c r="B389" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C389" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D389">
         <v>3</v>
@@ -7061,15 +7062,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>3880</v>
       </c>
       <c r="B390" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C390" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D390">
         <v>3</v>
@@ -7078,15 +7079,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>3890</v>
       </c>
       <c r="B391" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C391" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D391">
         <v>3</v>
@@ -7095,15 +7096,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>3900</v>
       </c>
       <c r="B392" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C392" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D392">
         <v>3</v>
@@ -7112,15 +7113,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>3910</v>
       </c>
       <c r="B393" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C393" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D393">
         <v>3</v>
@@ -7129,15 +7130,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>3920</v>
       </c>
       <c r="B394" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C394" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D394">
         <v>3</v>
@@ -7146,15 +7147,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>3930</v>
       </c>
       <c r="B395" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C395" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D395">
         <v>3</v>
@@ -7163,15 +7164,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>3940</v>
       </c>
       <c r="B396" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C396" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D396">
         <v>3</v>
@@ -7180,15 +7181,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>3950</v>
       </c>
       <c r="B397" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C397" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D397">
         <v>3</v>
@@ -7197,15 +7198,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>3960</v>
       </c>
       <c r="B398" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C398" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D398">
         <v>3</v>
@@ -7214,15 +7215,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>3970</v>
       </c>
       <c r="B399" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C399" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D399">
         <v>3</v>
@@ -7231,15 +7232,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>3980</v>
       </c>
       <c r="B400" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C400" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D400">
         <v>3</v>
@@ -7248,15 +7249,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>3990</v>
       </c>
       <c r="B401" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C401" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D401">
         <v>3</v>
@@ -7265,15 +7266,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>4000</v>
       </c>
       <c r="B402" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C402" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D402">
         <v>3</v>
@@ -7282,15 +7283,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>4010</v>
       </c>
       <c r="B403" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C403" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D403">
         <v>3</v>
@@ -7299,15 +7300,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>4020</v>
       </c>
       <c r="B404" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C404" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D404">
         <v>3</v>
@@ -7316,15 +7317,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>4030</v>
       </c>
       <c r="B405" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C405" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D405">
         <v>3</v>
@@ -7333,15 +7334,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>4040</v>
       </c>
       <c r="B406" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C406" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D406">
         <v>3</v>
@@ -7350,15 +7351,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>4050</v>
       </c>
       <c r="B407" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C407" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D407">
         <v>3</v>
@@ -7367,15 +7368,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>4060</v>
       </c>
       <c r="B408" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C408" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D408">
         <v>3</v>
@@ -7384,15 +7385,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>4070</v>
       </c>
       <c r="B409" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C409" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D409">
         <v>3</v>
@@ -7401,15 +7402,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>4080</v>
       </c>
       <c r="B410" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C410" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D410">
         <v>3</v>
@@ -7418,15 +7419,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>4090</v>
       </c>
       <c r="B411" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C411" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D411">
         <v>3</v>
@@ -7435,15 +7436,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>4100</v>
       </c>
       <c r="B412" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C412" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D412">
         <v>3</v>
@@ -7452,15 +7453,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>4110</v>
       </c>
       <c r="B413" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C413" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D413">
         <v>3</v>
@@ -7469,15 +7470,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>4120</v>
       </c>
       <c r="B414" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C414" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D414">
         <v>3</v>
@@ -7486,15 +7487,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>4130</v>
       </c>
       <c r="B415" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C415" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D415">
         <v>3</v>
@@ -7503,15 +7504,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>4140</v>
       </c>
       <c r="B416" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C416" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D416">
         <v>3</v>
@@ -7520,15 +7521,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>4150</v>
       </c>
       <c r="B417" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C417" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D417">
         <v>4</v>
